--- a/arquivo_excel.xlsx
+++ b/arquivo_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\2024\ScriptCadastro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5276EE44-95AB-4080-8E25-83A6116B745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D33A7-919A-456F-AFE1-A40D93E4BA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E03A67C1-A927-4974-AF1B-BE61CB2BF805}"/>
   </bookViews>
@@ -534,6 +534,9 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="3"/>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
     </row>
